--- a/GA_Parameters/MyErrPopCase.xlsx
+++ b/GA_Parameters/MyErrPopCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -27,6 +27,12 @@
     <t>EGA</t>
   </si>
   <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
     <t>Fpop10</t>
   </si>
   <si>
@@ -51,6 +57,12 @@
     <t>EGA</t>
   </si>
   <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
     <t>Spop10</t>
   </si>
   <si>
@@ -73,6 +85,12 @@
   </si>
   <si>
     <t>EGA</t>
+  </si>
+  <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
   </si>
   <si>
     <t>Tpop10</t>
@@ -133,15 +151,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="9.140625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -149,19 +167,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -202,6 +220,46 @@
       </c>
       <c r="F3" s="0">
         <v>0.30610081550505341</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>5.0609976791549576</v>
+      </c>
+      <c r="C4" s="0">
+        <v>3.8026593334529162</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2.3145512060156888</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1.0459738421277809</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.61697723772744051</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.0726484349768177</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.32957634859420631</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.17532314693681306</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.16716167937733981</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.16872663909143013</v>
       </c>
     </row>
   </sheetData>
@@ -210,40 +268,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="9.140625" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0">
         <v>26.676884802567667</v>
@@ -263,7 +321,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0">
         <v>3.0699773419372347</v>
@@ -279,6 +337,46 @@
       </c>
       <c r="F3" s="0">
         <v>0.2250902553304682</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0">
+        <v>5.2104526325048139</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4.5587975455492238</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2.7546467814264726</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1.3160431536759876</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.6594795768506504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.3798937730524157</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.47960948926455482</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.17795019021812006</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.13164747365916521</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.12995549119547994</v>
       </c>
     </row>
   </sheetData>
@@ -287,40 +385,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="9.140625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0">
         <v>27.260100558604893</v>
@@ -340,7 +438,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0">
         <v>3.3186529155836375</v>
@@ -356,6 +454,46 @@
       </c>
       <c r="F3" s="0">
         <v>0.25732098235263556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0">
+        <v>4.3087723880259148</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4.409660611147495</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2.5931488941536234</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1.3892216263819674</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.82268923009067141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.62295409284625</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.41398662661011881</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.1710784987065517</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.13176254499945655</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.12434446703268295</v>
       </c>
     </row>
   </sheetData>

--- a/GA_Parameters/MyErrPopCase.xlsx
+++ b/GA_Parameters/MyErrPopCase.xlsx
@@ -187,19 +187,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>26.318712970039833</v>
+        <v>26.465781092868561</v>
       </c>
       <c r="C2" s="0">
-        <v>16.025176528035999</v>
+        <v>16.174938413213894</v>
       </c>
       <c r="D2" s="0">
-        <v>8.9228748112962268</v>
+        <v>9.0491900147580679</v>
       </c>
       <c r="E2" s="0">
-        <v>4.8531434112240266</v>
+        <v>4.5476732494543795</v>
       </c>
       <c r="F2" s="0">
-        <v>2.3821003041508884</v>
+        <v>2.4382994430815104</v>
       </c>
     </row>
     <row r="3">
@@ -207,19 +207,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2.9336906021103091</v>
+        <v>3.5180811594734194</v>
       </c>
       <c r="C3" s="0">
-        <v>1.1252922301723542</v>
+        <v>1.2728225447195867</v>
       </c>
       <c r="D3" s="0">
-        <v>0.52942070706722999</v>
+        <v>0.57648193088289046</v>
       </c>
       <c r="E3" s="0">
-        <v>0.38324235110850446</v>
+        <v>0.33694719310178634</v>
       </c>
       <c r="F3" s="0">
-        <v>0.30610081550505341</v>
+        <v>0.26108136342096494</v>
       </c>
     </row>
     <row r="4">
@@ -227,19 +227,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>5.0609976791549576</v>
+        <v>3.1940477612757996</v>
       </c>
       <c r="C4" s="0">
-        <v>3.8026593334529162</v>
+        <v>2.1529345549310688</v>
       </c>
       <c r="D4" s="0">
-        <v>2.3145512060156888</v>
+        <v>1.154421105060639</v>
       </c>
       <c r="E4" s="0">
-        <v>1.0459738421277809</v>
+        <v>0.95139626147466483</v>
       </c>
       <c r="F4" s="0">
-        <v>0.61697723772744051</v>
+        <v>0.28749250456550862</v>
       </c>
     </row>
     <row r="5">
@@ -247,19 +247,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0726484349768177</v>
+        <v>0.68973740853600585</v>
       </c>
       <c r="C5" s="0">
-        <v>0.32957634859420631</v>
+        <v>0.23688019956218756</v>
       </c>
       <c r="D5" s="0">
-        <v>0.17532314693681306</v>
+        <v>0.11001340871132163</v>
       </c>
       <c r="E5" s="0">
-        <v>0.16716167937733981</v>
+        <v>0.03094127761288059</v>
       </c>
       <c r="F5" s="0">
-        <v>0.16872663909143013</v>
+        <v>0.0084147613309544945</v>
       </c>
     </row>
   </sheetData>
@@ -304,19 +304,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>26.676884802567667</v>
+        <v>26.215805822357879</v>
       </c>
       <c r="C2" s="0">
-        <v>16.615994959780355</v>
+        <v>16.920882898168205</v>
       </c>
       <c r="D2" s="0">
-        <v>9.4814936026566325</v>
+        <v>9.9514410176918684</v>
       </c>
       <c r="E2" s="0">
-        <v>4.721531264798303</v>
+        <v>4.5898811501643202</v>
       </c>
       <c r="F2" s="0">
-        <v>2.3384224240014184</v>
+        <v>2.4264897356834831</v>
       </c>
     </row>
     <row r="3">
@@ -324,19 +324,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="0">
-        <v>3.0699773419372347</v>
+        <v>3.666626339784091</v>
       </c>
       <c r="C3" s="0">
-        <v>1.0766174501393515</v>
+        <v>1.1691064958055761</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48044527708001289</v>
+        <v>0.51602386573502868</v>
       </c>
       <c r="E3" s="0">
-        <v>0.30049933542985852</v>
+        <v>0.26314920460906255</v>
       </c>
       <c r="F3" s="0">
-        <v>0.2250902553304682</v>
+        <v>0.19091342197930111</v>
       </c>
     </row>
     <row r="4">
@@ -344,19 +344,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="0">
-        <v>5.2104526325048139</v>
+        <v>2.8670929343482512</v>
       </c>
       <c r="C4" s="0">
-        <v>4.5587975455492238</v>
+        <v>1.9546250962630114</v>
       </c>
       <c r="D4" s="0">
-        <v>2.7546467814264726</v>
+        <v>1.5236987208734034</v>
       </c>
       <c r="E4" s="0">
-        <v>1.3160431536759876</v>
+        <v>0.74256634781913744</v>
       </c>
       <c r="F4" s="0">
-        <v>0.6594795768506504</v>
+        <v>0.41609453410207614</v>
       </c>
     </row>
     <row r="5">
@@ -364,19 +364,19 @@
         <v>14</v>
       </c>
       <c r="B5" s="0">
-        <v>1.3798937730524157</v>
+        <v>0.83761986340581851</v>
       </c>
       <c r="C5" s="0">
-        <v>0.47960948926455482</v>
+        <v>0.31714748570052809</v>
       </c>
       <c r="D5" s="0">
-        <v>0.17795019021812006</v>
+        <v>0.12019915980597266</v>
       </c>
       <c r="E5" s="0">
-        <v>0.13164747365916521</v>
+        <v>0.026077810282888671</v>
       </c>
       <c r="F5" s="0">
-        <v>0.12995549119547994</v>
+        <v>0.0084502435206878068</v>
       </c>
     </row>
   </sheetData>
@@ -391,7 +391,7 @@
     <col min="1" max="1" width="9.140625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
@@ -421,19 +421,19 @@
         <v>21</v>
       </c>
       <c r="B2" s="0">
-        <v>27.260100558604893</v>
+        <v>28.175062113060626</v>
       </c>
       <c r="C2" s="0">
-        <v>17.419440815654525</v>
+        <v>17.63260716822845</v>
       </c>
       <c r="D2" s="0">
-        <v>9.2235016680319823</v>
+        <v>9.1762998942245897</v>
       </c>
       <c r="E2" s="0">
-        <v>4.8884964539731666</v>
+        <v>4.8345151846703427</v>
       </c>
       <c r="F2" s="0">
-        <v>2.5304950681755338</v>
+        <v>2.6230740903502641</v>
       </c>
     </row>
     <row r="3">
@@ -441,19 +441,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>3.3186529155836375</v>
+        <v>3.5616300614928305</v>
       </c>
       <c r="C3" s="0">
-        <v>1.0808131538041983</v>
+        <v>1.1756887116220085</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49564782097200732</v>
+        <v>0.4981374335499465</v>
       </c>
       <c r="E3" s="0">
-        <v>0.3337437246632628</v>
+        <v>0.2813824165405634</v>
       </c>
       <c r="F3" s="0">
-        <v>0.25732098235263556</v>
+        <v>0.21782588958662372</v>
       </c>
     </row>
     <row r="4">
@@ -461,19 +461,19 @@
         <v>23</v>
       </c>
       <c r="B4" s="0">
-        <v>4.3087723880259148</v>
+        <v>2.1109582984738959</v>
       </c>
       <c r="C4" s="0">
-        <v>4.409660611147495</v>
+        <v>2.6046197601929979</v>
       </c>
       <c r="D4" s="0">
-        <v>2.5931488941536234</v>
+        <v>1.0998793029883311</v>
       </c>
       <c r="E4" s="0">
-        <v>1.3892216263819674</v>
+        <v>0.80677277464076402</v>
       </c>
       <c r="F4" s="0">
-        <v>0.82268923009067141</v>
+        <v>0.3141743919952491</v>
       </c>
     </row>
     <row r="5">
@@ -481,19 +481,19 @@
         <v>24</v>
       </c>
       <c r="B5" s="0">
-        <v>1.62295409284625</v>
+        <v>0.59690747535933575</v>
       </c>
       <c r="C5" s="0">
-        <v>0.41398662661011881</v>
+        <v>0.23493364592316227</v>
       </c>
       <c r="D5" s="0">
-        <v>0.1710784987065517</v>
+        <v>0.084238276411992871</v>
       </c>
       <c r="E5" s="0">
-        <v>0.13176254499945655</v>
+        <v>0.016654496409235421</v>
       </c>
       <c r="F5" s="0">
-        <v>0.12434446703268295</v>
+        <v>0.009367393997704504</v>
       </c>
     </row>
   </sheetData>

--- a/GA_Parameters/MyErrPopCase.xlsx
+++ b/GA_Parameters/MyErrPopCase.xlsx
@@ -187,19 +187,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>26.465781092868561</v>
+        <v>24.434400315398111</v>
       </c>
       <c r="C2" s="0">
-        <v>16.174938413213894</v>
+        <v>14.885583379743512</v>
       </c>
       <c r="D2" s="0">
-        <v>9.0491900147580679</v>
+        <v>7.4284665886958949</v>
       </c>
       <c r="E2" s="0">
-        <v>4.5476732494543795</v>
+        <v>4.2277460928841819</v>
       </c>
       <c r="F2" s="0">
-        <v>2.4382994430815104</v>
+        <v>2.1777005642058449</v>
       </c>
     </row>
     <row r="3">
@@ -207,19 +207,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.5180811594734194</v>
+        <v>3.5507671850247817</v>
       </c>
       <c r="C3" s="0">
-        <v>1.2728225447195867</v>
+        <v>1.3663530057980695</v>
       </c>
       <c r="D3" s="0">
-        <v>0.57648193088289046</v>
+        <v>0.5969832048268966</v>
       </c>
       <c r="E3" s="0">
-        <v>0.33694719310178634</v>
+        <v>0.37796583669995354</v>
       </c>
       <c r="F3" s="0">
-        <v>0.26108136342096494</v>
+        <v>0.28589534917254544</v>
       </c>
     </row>
     <row r="4">
@@ -227,19 +227,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>3.1940477612757996</v>
+        <v>4.8245895964325856</v>
       </c>
       <c r="C4" s="0">
-        <v>2.1529345549310688</v>
+        <v>2.7360150859481589</v>
       </c>
       <c r="D4" s="0">
-        <v>1.154421105060639</v>
+        <v>1.5581814831139631</v>
       </c>
       <c r="E4" s="0">
-        <v>0.95139626147466483</v>
+        <v>0.78789582490075516</v>
       </c>
       <c r="F4" s="0">
-        <v>0.28749250456550862</v>
+        <v>0.42285851730175666</v>
       </c>
     </row>
     <row r="5">
@@ -247,19 +247,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.68973740853600585</v>
+        <v>0.84934050174749476</v>
       </c>
       <c r="C5" s="0">
-        <v>0.23688019956218756</v>
+        <v>0.35729816282121779</v>
       </c>
       <c r="D5" s="0">
-        <v>0.11001340871132163</v>
+        <v>0.093638279300291977</v>
       </c>
       <c r="E5" s="0">
-        <v>0.03094127761288059</v>
+        <v>0.036795538936010563</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0084147613309544945</v>
+        <v>0.020934970410196981</v>
       </c>
     </row>
   </sheetData>
@@ -304,19 +304,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>26.215805822357879</v>
+        <v>24.870592199445483</v>
       </c>
       <c r="C2" s="0">
-        <v>16.920882898168205</v>
+        <v>14.83367620526924</v>
       </c>
       <c r="D2" s="0">
-        <v>9.9514410176918684</v>
+        <v>8.1450700155152553</v>
       </c>
       <c r="E2" s="0">
-        <v>4.5898811501643202</v>
+        <v>4.2537204304216178</v>
       </c>
       <c r="F2" s="0">
-        <v>2.4264897356834831</v>
+        <v>2.2285978942556022</v>
       </c>
     </row>
     <row r="3">
@@ -324,19 +324,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="0">
-        <v>3.666626339784091</v>
+        <v>3.5296311121408412</v>
       </c>
       <c r="C3" s="0">
-        <v>1.1691064958055761</v>
+        <v>1.2152678596699502</v>
       </c>
       <c r="D3" s="0">
-        <v>0.51602386573502868</v>
+        <v>0.51106062957318388</v>
       </c>
       <c r="E3" s="0">
-        <v>0.26314920460906255</v>
+        <v>0.24923491610613216</v>
       </c>
       <c r="F3" s="0">
-        <v>0.19091342197930111</v>
+        <v>0.18549211467155374</v>
       </c>
     </row>
     <row r="4">
@@ -344,19 +344,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="0">
-        <v>2.8670929343482512</v>
+        <v>4.3778870182822871</v>
       </c>
       <c r="C4" s="0">
-        <v>1.9546250962630114</v>
+        <v>2.7680945837116915</v>
       </c>
       <c r="D4" s="0">
-        <v>1.5236987208734034</v>
+        <v>1.9646058902930779</v>
       </c>
       <c r="E4" s="0">
-        <v>0.74256634781913744</v>
+        <v>1.1468861667127903</v>
       </c>
       <c r="F4" s="0">
-        <v>0.41609453410207614</v>
+        <v>0.50932623663412346</v>
       </c>
     </row>
     <row r="5">
@@ -364,19 +364,19 @@
         <v>14</v>
       </c>
       <c r="B5" s="0">
-        <v>0.83761986340581851</v>
+        <v>1.0042237825549234</v>
       </c>
       <c r="C5" s="0">
-        <v>0.31714748570052809</v>
+        <v>0.4621944765497028</v>
       </c>
       <c r="D5" s="0">
-        <v>0.12019915980597266</v>
+        <v>0.18192995682942537</v>
       </c>
       <c r="E5" s="0">
-        <v>0.026077810282888671</v>
+        <v>0.047045313285996621</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0084502435206878068</v>
+        <v>0.017692602186627722</v>
       </c>
     </row>
   </sheetData>
@@ -421,19 +421,19 @@
         <v>21</v>
       </c>
       <c r="B2" s="0">
-        <v>28.175062113060626</v>
+        <v>24.203726710183222</v>
       </c>
       <c r="C2" s="0">
-        <v>17.63260716822845</v>
+        <v>14.588029273465526</v>
       </c>
       <c r="D2" s="0">
-        <v>9.1762998942245897</v>
+        <v>7.9695506154379778</v>
       </c>
       <c r="E2" s="0">
-        <v>4.8345151846703427</v>
+        <v>4.0460995663019705</v>
       </c>
       <c r="F2" s="0">
-        <v>2.6230740903502641</v>
+        <v>2.2315117100407336</v>
       </c>
     </row>
     <row r="3">
@@ -441,19 +441,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>3.5616300614928305</v>
+        <v>2.750702640720073</v>
       </c>
       <c r="C3" s="0">
-        <v>1.1756887116220085</v>
+        <v>1.0291962143532729</v>
       </c>
       <c r="D3" s="0">
-        <v>0.4981374335499465</v>
+        <v>0.47038472126779612</v>
       </c>
       <c r="E3" s="0">
-        <v>0.2813824165405634</v>
+        <v>0.26746036875657475</v>
       </c>
       <c r="F3" s="0">
-        <v>0.21782588958662372</v>
+        <v>0.20613685403123999</v>
       </c>
     </row>
     <row r="4">
@@ -461,19 +461,19 @@
         <v>23</v>
       </c>
       <c r="B4" s="0">
-        <v>2.1109582984738959</v>
+        <v>3.4154680220928486</v>
       </c>
       <c r="C4" s="0">
-        <v>2.6046197601929979</v>
+        <v>2.591890359244442</v>
       </c>
       <c r="D4" s="0">
-        <v>1.0998793029883311</v>
+        <v>1.548758301847637</v>
       </c>
       <c r="E4" s="0">
-        <v>0.80677277464076402</v>
+        <v>0.75313623765014426</v>
       </c>
       <c r="F4" s="0">
-        <v>0.3141743919952491</v>
+        <v>0.38162532882573064</v>
       </c>
     </row>
     <row r="5">
@@ -481,19 +481,19 @@
         <v>24</v>
       </c>
       <c r="B5" s="0">
-        <v>0.59690747535933575</v>
+        <v>0.61232206827046864</v>
       </c>
       <c r="C5" s="0">
-        <v>0.23493364592316227</v>
+        <v>0.3065814540058136</v>
       </c>
       <c r="D5" s="0">
-        <v>0.084238276411992871</v>
+        <v>0.079838935559935056</v>
       </c>
       <c r="E5" s="0">
-        <v>0.016654496409235421</v>
+        <v>0.036462482085658748</v>
       </c>
       <c r="F5" s="0">
-        <v>0.009367393997704504</v>
+        <v>0.010766900972349348</v>
       </c>
     </row>
   </sheetData>

--- a/GA_Parameters/MyErrPopCase.xlsx
+++ b/GA_Parameters/MyErrPopCase.xlsx
@@ -16,7 +16,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
+    <t>Fpop10</t>
+  </si>
+  <si>
+    <t>Fpop20</t>
+  </si>
+  <si>
+    <t>Fpop40</t>
+  </si>
+  <si>
+    <t>Fpop80</t>
+  </si>
+  <si>
+    <t>Fpop160</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
+    <t>Spop10</t>
+  </si>
+  <si>
+    <t>Spop20</t>
+  </si>
+  <si>
+    <t>Spop40</t>
+  </si>
+  <si>
+    <t>Spop80</t>
+  </si>
+  <si>
+    <t>Spop160</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
+    <t>Tpop10</t>
+  </si>
+  <si>
+    <t>Tpop20</t>
+  </si>
+  <si>
+    <t>Tpop40</t>
+  </si>
+  <si>
+    <t>Tpop80</t>
+  </si>
+  <si>
+    <t>Tpop160</t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -157,109 +247,109 @@
     <col min="1" max="1" width="9.140625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0">
-        <v>24.434400315398111</v>
+        <v>26.75902599382152</v>
       </c>
       <c r="C2" s="0">
-        <v>14.885583379743512</v>
+        <v>16.566440876135552</v>
       </c>
       <c r="D2" s="0">
-        <v>7.4284665886958949</v>
+        <v>7.1040599166777723</v>
       </c>
       <c r="E2" s="0">
-        <v>4.2277460928841819</v>
+        <v>4.1162165199143494</v>
       </c>
       <c r="F2" s="0">
-        <v>2.1777005642058449</v>
+        <v>2.2232062623043096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0">
-        <v>3.5507671850247817</v>
+        <v>3.0469537870340204</v>
       </c>
       <c r="C3" s="0">
-        <v>1.3663530057980695</v>
+        <v>1.2711178673506149</v>
       </c>
       <c r="D3" s="0">
-        <v>0.5969832048268966</v>
+        <v>0.56385258797606796</v>
       </c>
       <c r="E3" s="0">
-        <v>0.37796583669995354</v>
+        <v>0.34740125053458626</v>
       </c>
       <c r="F3" s="0">
-        <v>0.28589534917254544</v>
+        <v>0.27173328760081605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0">
-        <v>4.8245895964325856</v>
+        <v>3.5319012446460278</v>
       </c>
       <c r="C4" s="0">
-        <v>2.7360150859481589</v>
+        <v>2.6383118733787638</v>
       </c>
       <c r="D4" s="0">
-        <v>1.5581814831139631</v>
+        <v>1.20992297561674</v>
       </c>
       <c r="E4" s="0">
-        <v>0.78789582490075516</v>
+        <v>0.76630480856965955</v>
       </c>
       <c r="F4" s="0">
-        <v>0.42285851730175666</v>
+        <v>0.31229249856917979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0">
-        <v>0.84934050174749476</v>
+        <v>0.70178045481260309</v>
       </c>
       <c r="C5" s="0">
-        <v>0.35729816282121779</v>
+        <v>0.25545587023576105</v>
       </c>
       <c r="D5" s="0">
-        <v>0.093638279300291977</v>
+        <v>0.075246208348824242</v>
       </c>
       <c r="E5" s="0">
-        <v>0.036795538936010563</v>
+        <v>0.019825349379643621</v>
       </c>
       <c r="F5" s="0">
-        <v>0.020934970410196981</v>
+        <v>0.011960408985652824</v>
       </c>
     </row>
   </sheetData>
@@ -281,102 +371,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0">
-        <v>24.870592199445483</v>
+        <v>24.620849405959152</v>
       </c>
       <c r="C2" s="0">
-        <v>14.83367620526924</v>
+        <v>13.977655951631732</v>
       </c>
       <c r="D2" s="0">
-        <v>8.1450700155152553</v>
+        <v>8.3559941364785448</v>
       </c>
       <c r="E2" s="0">
-        <v>4.2537204304216178</v>
+        <v>3.930706741605531</v>
       </c>
       <c r="F2" s="0">
-        <v>2.2285978942556022</v>
+        <v>2.2208160316459478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0">
-        <v>3.5296311121408412</v>
+        <v>3.1148681098114781</v>
       </c>
       <c r="C3" s="0">
-        <v>1.2152678596699502</v>
+        <v>1.1191010650765334</v>
       </c>
       <c r="D3" s="0">
-        <v>0.51106062957318388</v>
+        <v>0.46413103507310688</v>
       </c>
       <c r="E3" s="0">
-        <v>0.24923491610613216</v>
+        <v>0.26559137649890585</v>
       </c>
       <c r="F3" s="0">
-        <v>0.18549211467155374</v>
+        <v>0.19244474853874541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0">
-        <v>4.3778870182822871</v>
+        <v>4.1771225877102971</v>
       </c>
       <c r="C4" s="0">
-        <v>2.7680945837116915</v>
+        <v>2.9701766612137659</v>
       </c>
       <c r="D4" s="0">
-        <v>1.9646058902930779</v>
+        <v>2.4015931359992835</v>
       </c>
       <c r="E4" s="0">
-        <v>1.1468861667127903</v>
+        <v>0.74039569931330695</v>
       </c>
       <c r="F4" s="0">
-        <v>0.50932623663412346</v>
+        <v>0.47712902750095476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0042237825549234</v>
+        <v>0.78469461223684722</v>
       </c>
       <c r="C5" s="0">
-        <v>0.4621944765497028</v>
+        <v>0.22809009481424741</v>
       </c>
       <c r="D5" s="0">
-        <v>0.18192995682942537</v>
+        <v>0.068797036879204104</v>
       </c>
       <c r="E5" s="0">
-        <v>0.047045313285996621</v>
+        <v>0.027343685136168531</v>
       </c>
       <c r="F5" s="0">
-        <v>0.017692602186627722</v>
+        <v>0.0090310723801059409</v>
       </c>
     </row>
   </sheetData>
@@ -398,102 +488,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0">
-        <v>24.203726710183222</v>
+        <v>23.76056733072657</v>
       </c>
       <c r="C2" s="0">
-        <v>14.588029273465526</v>
+        <v>15.020328190389341</v>
       </c>
       <c r="D2" s="0">
-        <v>7.9695506154379778</v>
+        <v>8.107341491036788</v>
       </c>
       <c r="E2" s="0">
-        <v>4.0460995663019705</v>
+        <v>4.171802228562477</v>
       </c>
       <c r="F2" s="0">
-        <v>2.2315117100407336</v>
+        <v>2.2230352206020183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0">
-        <v>2.750702640720073</v>
+        <v>2.9433278128874729</v>
       </c>
       <c r="C3" s="0">
-        <v>1.0291962143532729</v>
+        <v>1.1513749257930224</v>
       </c>
       <c r="D3" s="0">
-        <v>0.47038472126779612</v>
+        <v>0.53629647015572313</v>
       </c>
       <c r="E3" s="0">
-        <v>0.26746036875657475</v>
+        <v>0.29037365880674071</v>
       </c>
       <c r="F3" s="0">
-        <v>0.20613685403123999</v>
+        <v>0.21645698201821909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0">
-        <v>3.4154680220928486</v>
+        <v>4.1180316943592201</v>
       </c>
       <c r="C4" s="0">
-        <v>2.591890359244442</v>
+        <v>1.7891115986206836</v>
       </c>
       <c r="D4" s="0">
-        <v>1.548758301847637</v>
+        <v>1.3782166344563715</v>
       </c>
       <c r="E4" s="0">
-        <v>0.75313623765014426</v>
+        <v>0.58721620993711254</v>
       </c>
       <c r="F4" s="0">
-        <v>0.38162532882573064</v>
+        <v>0.37740356542413867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0">
-        <v>0.61232206827046864</v>
+        <v>0.57173066568774933</v>
       </c>
       <c r="C5" s="0">
-        <v>0.3065814540058136</v>
+        <v>0.19729983594464151</v>
       </c>
       <c r="D5" s="0">
-        <v>0.079838935559935056</v>
+        <v>0.079984693122775022</v>
       </c>
       <c r="E5" s="0">
-        <v>0.036462482085658748</v>
+        <v>0.023672582242036458</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010766900972349348</v>
+        <v>0.0087842782917819332</v>
       </c>
     </row>
   </sheetData>
